--- a/GLOBAL/Impactos Cambio Climático/Ecosistemas/Variación Nivel del Mar en mm 1992-2020.xlsx
+++ b/GLOBAL/Impactos Cambio Climático/Ecosistemas/Variación Nivel del Mar en mm 1992-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Desktop\DI\DATAICC\Océano\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\GLOBAL\Impactos Cambio Climático\Ecosistemas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E2FF76A8-16F1-4B29-9BF8-50D5FD172ED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DD70E4-D77E-4434-8498-B2B297FA0EFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="3" r:id="rId1"/>
@@ -3782,9 +3782,6 @@
     <t>2020.5296,,,,72.55000</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>TOPEX/Poseidon</t>
   </si>
   <si>
@@ -3795,12 +3792,15 @@
   </si>
   <si>
     <t>Jason-3</t>
+  </si>
+  <si>
+    <t>Año</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4339,14 +4339,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Variacion_nivel_mar_MUNDO" displayName="Variacion_nivel_mar_MUNDO" ref="A1:E1248" totalsRowShown="0">
-  <autoFilter ref="A1:E1248"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Variacion_nivel_mar_MUNDO" displayName="Variacion_nivel_mar_MUNDO" ref="A1:E1248" totalsRowShown="0">
+  <autoFilter ref="A1:E1248" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="year"/>
-    <tableColumn id="2" name="TOPEX/Poseidon"/>
-    <tableColumn id="3" name="Jason-1"/>
-    <tableColumn id="4" name="Jason-2"/>
-    <tableColumn id="5" name="Jason-3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Año"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TOPEX/Poseidon"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Jason-1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Jason-2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Jason-3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4648,11 +4648,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4662,19 +4662,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B1" t="s">
         <v>1253</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1254</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1255</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1256</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -14872,7 +14872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A1253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
